--- a/data_analysis/data/export/individual_user_action/108565623227009900784_action_20220903.xlsx
+++ b/data_analysis/data/export/individual_user_action/108565623227009900784_action_20220903.xlsx
@@ -473,217 +473,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -773,9 +770,6 @@
         <v>33</v>
       </c>
       <c r="AF3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" t="s">
         <v>33</v>
       </c>
     </row>
